--- a/Test_Sets/Project_Sets/src/main/resources/studentPreferences120.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/studentPreferences120.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weron\Desktop\SEP_Project\cthulhu\Test_Sets\Project_Sets\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{434A716F-8F59-499D-9A2C-0726AA76C92B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D211C8AF-C565-4513-9006-5C8C7587F78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{52093B69-868F-4DC6-8369-F4663330ACD9}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{51231F8A-8C1F-42E3-A4B3-CF5882A56BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19F3179-4A51-40D7-8471-933CB1226A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D999D1B-0F00-464F-99F5-2531CD9988E4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
